--- a/biology/Zoologie/Eleutherodactylus_haitianus/Eleutherodactylus_haitianus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_haitianus/Eleutherodactylus_haitianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus haitianus est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus haitianus est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de République dominicaine[1]. Elle se rencontre entre 1 545 et 2 455 m d'altitude dans la cordillère Centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de République dominicaine. Elle se rencontre entre 1 545 et 2 455 m d'altitude dans la cordillère Centrale.
 Contrairement à son nom, elle n'est pas présente à Haïti.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 21 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 21 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1942 : Two preoccupied names in Eleutherodactylus. Copeia, vol. 1942, no 3, p. 179.
 Cochran, 1941 : The Herpetology of Hispaniola. United States National Museum Bulletin, vol. 177, p. 1-398 (texte intégral).</t>
